--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_24_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1274940.001581113</v>
+        <v>1270456.79905965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30187757.38812197</v>
+        <v>30187757.38812196</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7276951.394760769</v>
+        <v>7276951.394760771</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4279816.99892212</v>
+        <v>4279816.998922119</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>146.6299466988581</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>154.2797436357985</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T11" t="n">
         <v>209.9888884907911</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4071151528002</v>
       </c>
       <c r="I13" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>152.8483877177524</v>
       </c>
       <c r="T13" t="n">
-        <v>10.49601352348544</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3338237039372</v>
+        <v>174.5583183810099</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>130.3411755961784</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>57.89215638146402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>28.58423475736501</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8499060647345</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I16" t="n">
-        <v>71.8766712439448</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.356991008623005</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.0848299533737</v>
@@ -1824,13 +1824,13 @@
         <v>277.3338237039372</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>76.70258151509394</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.6118642180837</v>
@@ -1906,13 +1906,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>144.6209251845433</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>256.9060635658134</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H18" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T18" t="n">
         <v>136.1614894255189</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.5960495733885</v>
+        <v>65.67676030468749</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.8766712439448</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.510907859438573</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -2095,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3019706430941</v>
+        <v>98.27189828158913</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H21" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T21" t="n">
         <v>136.1614894255189</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>132.2882764906437</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>77.02469339044593</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H22" t="n">
         <v>134.4071151528002</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.356991008623005</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3338237039372</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>364.5601195108538</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.9474857172589372</v>
       </c>
       <c r="T23" t="n">
         <v>209.9888884907911</v>
@@ -2377,13 +2377,13 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H24" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T24" t="n">
         <v>136.1614894255189</v>
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>115.863493092611</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.46078581710212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S25" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U25" t="n">
         <v>277.3338237039372</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>411.9454080740052</v>
       </c>
       <c r="F26" t="n">
-        <v>47.27458425276899</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H27" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T27" t="n">
         <v>136.1614894255189</v>
@@ -2724,13 +2724,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7000943114157</v>
+        <v>13.57688275032635</v>
       </c>
       <c r="H28" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>71.87667124394481</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U28" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>109.3302386364079</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>218.9015492885421</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>398.3019706430941</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>203.8208800008702</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H30" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T30" t="n">
         <v>136.1614894255189</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>119.5671980353142</v>
       </c>
       <c r="G31" t="n">
-        <v>43.32478692791231</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>152.8483877177524</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>230.7282529509061</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>412.859960307217</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3040,13 +3040,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H33" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T33" t="n">
         <v>136.1614894255189</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
@@ -3201,10 +3201,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7000943114157</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4071151528002</v>
+        <v>5.117331411638143</v>
       </c>
       <c r="I34" t="n">
         <v>71.87667124394481</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S34" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.0848299533737</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3252,10 +3252,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>98.2145194027088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>15.88457007322633</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>368.1823137476511</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H36" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T36" t="n">
         <v>136.1614894255189</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>14.25785079261453</v>
+        <v>34.75555458253527</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T37" t="n">
         <v>237.0848299533737</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>316.8950225970623</v>
       </c>
       <c r="H38" t="n">
-        <v>39.22750244808442</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -3599,7 +3599,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H39" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T39" t="n">
         <v>136.1614894255189</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3672,13 +3672,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>115.863493092611</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>95.73789268206468</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.8483877177524</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U40" t="n">
         <v>277.3338237039372</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>274.253973571334</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H41" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>143.8824922068964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H42" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T42" t="n">
         <v>136.1614894255189</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>82.93602920194932</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3915,7 +3915,7 @@
         <v>163.7000943114157</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>71.87667124394481</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.356991008623012</v>
+        <v>6.356991008623027</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>237.0848299533737</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>112.3836662716871</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>397.8310364643144</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -3991,10 +3991,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>154.2797436357985</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>92.04650991037211</v>
       </c>
       <c r="H45" t="n">
-        <v>42.54002271080371</v>
+        <v>42.54002271080372</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.69707166156559</v>
+        <v>60.6970716615656</v>
       </c>
       <c r="T45" t="n">
         <v>136.1614894255189</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.84765888076377</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7000943114157</v>
+        <v>158.389718626927</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.87667124394481</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>6.356991008623027</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U46" t="n">
         <v>277.3338237039372</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043.91003331953</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="C11" t="n">
-        <v>617.0093033328301</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="D11" t="n">
-        <v>617.0093033328301</v>
+        <v>1452.185775628313</v>
       </c>
       <c r="E11" t="n">
-        <v>191.0323634806876</v>
+        <v>1026.208835776171</v>
       </c>
       <c r="F11" t="n">
-        <v>191.0323634806876</v>
+        <v>601.0846539655711</v>
       </c>
       <c r="G11" t="n">
-        <v>42.92130620911384</v>
+        <v>198.7594310937588</v>
       </c>
       <c r="H11" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="I11" t="n">
-        <v>84.81242438636582</v>
+        <v>84.81242438636627</v>
       </c>
       <c r="J11" t="n">
-        <v>223.2074279870265</v>
+        <v>223.2074279870269</v>
       </c>
       <c r="K11" t="n">
-        <v>438.8706723956535</v>
+        <v>438.8706723956536</v>
       </c>
       <c r="L11" t="n">
         <v>712.4165336350362</v>
@@ -5059,16 +5059,16 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P11" t="n">
-        <v>1879.382279157806</v>
+        <v>1879.382279157807</v>
       </c>
       <c r="Q11" t="n">
-        <v>2056.763172699934</v>
+        <v>2056.763172699935</v>
       </c>
       <c r="R11" t="n">
         <v>2146.065310455692</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.588384817849</v>
+        <v>2087.58838481785</v>
       </c>
       <c r="T11" t="n">
         <v>1875.478396443313</v>
@@ -5083,10 +5083,10 @@
         <v>1875.478396443313</v>
       </c>
       <c r="X11" t="n">
-        <v>1463.75839761106</v>
+        <v>1875.478396443313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.75839761106</v>
+        <v>1875.478396443313</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G12" t="n">
-        <v>85.89102611901657</v>
+        <v>85.89102611901659</v>
       </c>
       <c r="H12" t="n">
         <v>42.92130620911384</v>
       </c>
       <c r="I12" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069545</v>
       </c>
       <c r="J12" t="n">
-        <v>142.6397134696361</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K12" t="n">
-        <v>290.9945042260695</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L12" t="n">
-        <v>498.0032414541163</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M12" t="n">
-        <v>742.7181649058954</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N12" t="n">
-        <v>996.251369008271</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O12" t="n">
-        <v>1224.574002310264</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P12" t="n">
-        <v>1404.681421549505</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q12" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R12" t="n">
         <v>1815.69702447452</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>918.029150779334</v>
+        <v>586.5781032102403</v>
       </c>
       <c r="C13" t="n">
-        <v>918.029150779334</v>
+        <v>414.6055400891563</v>
       </c>
       <c r="D13" t="n">
-        <v>754.7123779061047</v>
+        <v>251.288767215927</v>
       </c>
       <c r="E13" t="n">
-        <v>588.5041720589583</v>
+        <v>251.288767215927</v>
       </c>
       <c r="F13" t="n">
-        <v>416.6423978335187</v>
+        <v>251.288767215927</v>
       </c>
       <c r="G13" t="n">
         <v>251.288767215927</v>
@@ -5199,25 +5199,25 @@
         <v>42.92130620911384</v>
       </c>
       <c r="J13" t="n">
-        <v>85.08605645578093</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K13" t="n">
-        <v>414.4766989644249</v>
+        <v>245.1158064986237</v>
       </c>
       <c r="L13" t="n">
-        <v>900.7952986208256</v>
+        <v>731.4344061550242</v>
       </c>
       <c r="M13" t="n">
-        <v>1430.765711837109</v>
+        <v>951.7350015510291</v>
       </c>
       <c r="N13" t="n">
-        <v>1908.51024606261</v>
+        <v>1066.678219808201</v>
       </c>
       <c r="O13" t="n">
-        <v>2011.378035272976</v>
+        <v>1547.24833332177</v>
       </c>
       <c r="P13" t="n">
-        <v>2096.301629592817</v>
+        <v>1944.928132214918</v>
       </c>
       <c r="Q13" t="n">
         <v>2146.065310455692</v>
@@ -5226,25 +5226,25 @@
         <v>2146.065310455692</v>
       </c>
       <c r="S13" t="n">
-        <v>1991.672999629679</v>
+        <v>1991.67299962968</v>
       </c>
       <c r="T13" t="n">
-        <v>1981.070965767573</v>
+        <v>1752.193373414151</v>
       </c>
       <c r="U13" t="n">
-        <v>1700.93579030905</v>
+        <v>1575.871839695959</v>
       </c>
       <c r="V13" t="n">
-        <v>1419.224322917079</v>
+        <v>1294.160372303988</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.371919089592</v>
+        <v>1019.307968476501</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.371919089592</v>
+        <v>776.7440719223059</v>
       </c>
       <c r="Y13" t="n">
-        <v>918.029150779334</v>
+        <v>776.7440719223059</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1726.216946164162</v>
+        <v>893.1146570108135</v>
       </c>
       <c r="C14" t="n">
-        <v>1726.216946164162</v>
+        <v>466.2139270241136</v>
       </c>
       <c r="D14" t="n">
-        <v>1302.924325349162</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="E14" t="n">
-        <v>876.94738549702</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="F14" t="n">
-        <v>451.8232036864202</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G14" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H14" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I14" t="n">
         <v>84.81242438636582</v>
       </c>
       <c r="J14" t="n">
-        <v>223.2074279870264</v>
+        <v>223.2074279870258</v>
       </c>
       <c r="K14" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956527</v>
       </c>
       <c r="L14" t="n">
-        <v>712.4165336350362</v>
+        <v>712.4165336350354</v>
       </c>
       <c r="M14" t="n">
         <v>1021.935294493278</v>
@@ -5296,34 +5296,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P14" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q14" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R14" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S14" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T14" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U14" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V14" t="n">
-        <v>2146.065310455692</v>
+        <v>1730.098969944098</v>
       </c>
       <c r="W14" t="n">
-        <v>2146.065310455692</v>
+        <v>1333.707620244445</v>
       </c>
       <c r="X14" t="n">
-        <v>2146.065310455692</v>
+        <v>921.9876214121923</v>
       </c>
       <c r="Y14" t="n">
-        <v>2146.065310455692</v>
+        <v>893.1146570108135</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G15" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H15" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I15" t="n">
         <v>86.72780340069545</v>
@@ -5363,10 +5363,10 @@
         <v>314.4518100704813</v>
       </c>
       <c r="L15" t="n">
-        <v>521.4605472985281</v>
+        <v>521.460547298528</v>
       </c>
       <c r="M15" t="n">
-        <v>766.1754707503072</v>
+        <v>766.1754707503071</v>
       </c>
       <c r="N15" t="n">
         <v>1019.708674852683</v>
@@ -5378,7 +5378,7 @@
         <v>1428.138727393916</v>
       </c>
       <c r="Q15" t="n">
-        <v>1668.109549233739</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R15" t="n">
         <v>1815.69702447452</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>440.1664588327041</v>
+        <v>851.1908098270646</v>
       </c>
       <c r="C16" t="n">
-        <v>440.1664588327041</v>
+        <v>679.2182467059806</v>
       </c>
       <c r="D16" t="n">
-        <v>440.1664588327041</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="E16" t="n">
-        <v>273.9582529855576</v>
+        <v>515.9014738327513</v>
       </c>
       <c r="F16" t="n">
-        <v>273.9582529855576</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G16" t="n">
-        <v>115.5240044353207</v>
+        <v>178.6860689897201</v>
       </c>
       <c r="H16" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I16" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J16" t="n">
-        <v>85.08605645578095</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K16" t="n">
-        <v>414.4766989644249</v>
+        <v>245.1158064986237</v>
       </c>
       <c r="L16" t="n">
-        <v>900.7952986208256</v>
+        <v>355.0455125638593</v>
       </c>
       <c r="M16" t="n">
-        <v>1430.765711837109</v>
+        <v>885.0159257801429</v>
       </c>
       <c r="N16" t="n">
-        <v>1908.510246062611</v>
+        <v>1066.6782198082</v>
       </c>
       <c r="O16" t="n">
-        <v>2011.378035272977</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P16" t="n">
-        <v>2096.301629592817</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q16" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R16" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S16" t="n">
-        <v>1985.251796590667</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T16" t="n">
-        <v>1745.772170375138</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U16" t="n">
-        <v>1465.636994916615</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="V16" t="n">
-        <v>1183.925527524644</v>
+        <v>1542.551950676875</v>
       </c>
       <c r="W16" t="n">
-        <v>909.0731236971569</v>
+        <v>1267.699546849388</v>
       </c>
       <c r="X16" t="n">
-        <v>666.509227142962</v>
+        <v>1267.699546849388</v>
       </c>
       <c r="Y16" t="n">
-        <v>440.1664588327041</v>
+        <v>1041.35677853913</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1172.190362356267</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="C17" t="n">
-        <v>745.289632369567</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="D17" t="n">
-        <v>745.289632369567</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="E17" t="n">
-        <v>745.289632369567</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="F17" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G17" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H17" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I17" t="n">
-        <v>84.81242438636605</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J17" t="n">
-        <v>223.2074279870267</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K17" t="n">
-        <v>438.8706723956536</v>
+        <v>438.8706723956532</v>
       </c>
       <c r="L17" t="n">
-        <v>712.4165336350363</v>
+        <v>712.4165336350358</v>
       </c>
       <c r="M17" t="n">
         <v>1021.935294493278</v>
@@ -5530,37 +5530,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O17" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974934</v>
       </c>
       <c r="P17" t="n">
         <v>1879.382279157806</v>
       </c>
       <c r="Q17" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R17" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S17" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T17" t="n">
-        <v>1933.955322081156</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U17" t="n">
-        <v>1675.761519840667</v>
+        <v>1887.871508215203</v>
       </c>
       <c r="V17" t="n">
-        <v>1318.272104966917</v>
+        <v>1530.382093341452</v>
       </c>
       <c r="W17" t="n">
-        <v>1318.272104966917</v>
+        <v>1133.990743641799</v>
       </c>
       <c r="X17" t="n">
-        <v>1172.190362356267</v>
+        <v>722.2707448095464</v>
       </c>
       <c r="Y17" t="n">
-        <v>1172.190362356267</v>
+        <v>462.7696705006439</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G18" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H18" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I18" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J18" t="n">
-        <v>399.238170809794</v>
+        <v>166.0970193140478</v>
       </c>
       <c r="K18" t="n">
-        <v>547.5929615662275</v>
+        <v>547.5929615662282</v>
       </c>
       <c r="L18" t="n">
-        <v>754.6016987942743</v>
+        <v>754.6016987942749</v>
       </c>
       <c r="M18" t="n">
-        <v>999.3166222460534</v>
+        <v>999.3166222460538</v>
       </c>
       <c r="N18" t="n">
         <v>1252.849826348429</v>
       </c>
       <c r="O18" t="n">
-        <v>1481.172459650422</v>
+        <v>1481.172459650423</v>
       </c>
       <c r="P18" t="n">
         <v>1661.279878889663</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1090.001713900418</v>
+        <v>380.2474999477895</v>
       </c>
       <c r="C19" t="n">
-        <v>918.029150779334</v>
+        <v>208.2749368267055</v>
       </c>
       <c r="D19" t="n">
-        <v>754.7123779061047</v>
+        <v>208.2749368267055</v>
       </c>
       <c r="E19" t="n">
-        <v>588.5041720589583</v>
+        <v>208.2749368267055</v>
       </c>
       <c r="F19" t="n">
-        <v>416.6423978335187</v>
+        <v>208.2749368267055</v>
       </c>
       <c r="G19" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H19" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I19" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J19" t="n">
-        <v>85.08605645578095</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K19" t="n">
-        <v>414.4766989644249</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L19" t="n">
-        <v>900.7952986208256</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M19" t="n">
-        <v>1430.765711837109</v>
+        <v>1329.437325854232</v>
       </c>
       <c r="N19" t="n">
-        <v>1757.136748684712</v>
+        <v>1444.380544111403</v>
       </c>
       <c r="O19" t="n">
-        <v>1860.004537895078</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P19" t="n">
-        <v>1944.928132214918</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q19" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R19" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S19" t="n">
-        <v>1991.67299962968</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="T19" t="n">
-        <v>1752.193373414151</v>
+        <v>1752.19337341415</v>
       </c>
       <c r="U19" t="n">
-        <v>1752.193373414151</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="V19" t="n">
-        <v>1470.48190602218</v>
+        <v>1190.346730563656</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.48190602218</v>
+        <v>915.4943267361691</v>
       </c>
       <c r="X19" t="n">
-        <v>1470.48190602218</v>
+        <v>672.9304301819742</v>
       </c>
       <c r="Y19" t="n">
-        <v>1244.139137711922</v>
+        <v>446.5876618717163</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1726.216946164162</v>
+        <v>1270.531115940486</v>
       </c>
       <c r="C20" t="n">
-        <v>1719.640271558668</v>
+        <v>1270.531115940486</v>
       </c>
       <c r="D20" t="n">
-        <v>1296.347650743669</v>
+        <v>1270.531115940486</v>
       </c>
       <c r="E20" t="n">
-        <v>870.370710891526</v>
+        <v>844.554176088344</v>
       </c>
       <c r="F20" t="n">
-        <v>445.2465290809261</v>
+        <v>419.4299942777442</v>
       </c>
       <c r="G20" t="n">
-        <v>42.92130620911384</v>
+        <v>320.1654505589673</v>
       </c>
       <c r="H20" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I20" t="n">
-        <v>84.81242438636593</v>
+        <v>84.81242438636605</v>
       </c>
       <c r="J20" t="n">
         <v>223.2074279870266</v>
@@ -5758,7 +5758,7 @@
         <v>438.8706723956535</v>
       </c>
       <c r="L20" t="n">
-        <v>712.4165336350362</v>
+        <v>712.416533635036</v>
       </c>
       <c r="M20" t="n">
         <v>1021.935294493278</v>
@@ -5776,28 +5776,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R20" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S20" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T20" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U20" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V20" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="W20" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.065310455692</v>
+        <v>1675.868385985596</v>
       </c>
       <c r="Y20" t="n">
-        <v>2146.065310455692</v>
+        <v>1270.531115940486</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>85.89102611901657</v>
       </c>
       <c r="H21" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I21" t="n">
-        <v>86.72780340069545</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J21" t="n">
-        <v>166.0970193140479</v>
+        <v>166.0970193140478</v>
       </c>
       <c r="K21" t="n">
-        <v>314.4518100704813</v>
+        <v>314.4518100704812</v>
       </c>
       <c r="L21" t="n">
-        <v>521.4605472985281</v>
+        <v>521.4605472985279</v>
       </c>
       <c r="M21" t="n">
-        <v>999.3166222460534</v>
+        <v>766.1754707503069</v>
       </c>
       <c r="N21" t="n">
-        <v>1252.849826348429</v>
+        <v>1019.708674852682</v>
       </c>
       <c r="O21" t="n">
-        <v>1481.172459650422</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.279878889663</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R21" t="n">
         <v>1815.69702447452</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>594.5587696587162</v>
+        <v>643.8724271621791</v>
       </c>
       <c r="C22" t="n">
-        <v>594.5587696587162</v>
+        <v>510.2479054544582</v>
       </c>
       <c r="D22" t="n">
-        <v>594.5587696587162</v>
+        <v>510.2479054544582</v>
       </c>
       <c r="E22" t="n">
-        <v>428.3505638115697</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="F22" t="n">
-        <v>256.4887895861301</v>
+        <v>344.0396996073118</v>
       </c>
       <c r="G22" t="n">
         <v>178.6860689897201</v>
       </c>
       <c r="H22" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I22" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J22" t="n">
         <v>163.0077731040018</v>
       </c>
       <c r="K22" t="n">
-        <v>492.3984156126458</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L22" t="n">
-        <v>978.7170152690464</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M22" t="n">
         <v>1095.151948022508</v>
       </c>
       <c r="N22" t="n">
-        <v>1210.09516627968</v>
+        <v>1530.807921759407</v>
       </c>
       <c r="O22" t="n">
-        <v>1547.24833332177</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P22" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q22" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R22" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S22" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T22" t="n">
-        <v>1900.16448120115</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="U22" t="n">
-        <v>1620.029305742627</v>
+        <v>1859.508931958156</v>
       </c>
       <c r="V22" t="n">
-        <v>1338.317838350656</v>
+        <v>1577.797464566185</v>
       </c>
       <c r="W22" t="n">
-        <v>1063.465434523169</v>
+        <v>1302.945060738698</v>
       </c>
       <c r="X22" t="n">
-        <v>820.9015379689741</v>
+        <v>1060.381164184503</v>
       </c>
       <c r="Y22" t="n">
-        <v>594.5587696587162</v>
+        <v>834.0383958742448</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>895.7989760479561</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="C23" t="n">
-        <v>468.8982460612563</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D23" t="n">
-        <v>468.8982460612563</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E23" t="n">
-        <v>42.92130620911384</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F23" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911382</v>
       </c>
       <c r="G23" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911382</v>
       </c>
       <c r="H23" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911382</v>
       </c>
       <c r="I23" t="n">
-        <v>84.81242438636627</v>
+        <v>84.81242438636593</v>
       </c>
       <c r="J23" t="n">
-        <v>223.2074279870269</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K23" t="n">
-        <v>438.8706723956539</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L23" t="n">
-        <v>712.4165336350364</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M23" t="n">
-        <v>1021.935294493278</v>
+        <v>1021.935294493277</v>
       </c>
       <c r="N23" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O23" t="n">
-        <v>1632.752137974935</v>
+        <v>1632.752137974934</v>
       </c>
       <c r="P23" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157805</v>
       </c>
       <c r="Q23" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699933</v>
       </c>
       <c r="R23" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S23" t="n">
-        <v>2146.065310455692</v>
+        <v>2145.108254175631</v>
       </c>
       <c r="T23" t="n">
-        <v>1933.955322081156</v>
+        <v>1932.998265801095</v>
       </c>
       <c r="U23" t="n">
-        <v>1675.761519840667</v>
+        <v>1674.804463560606</v>
       </c>
       <c r="V23" t="n">
-        <v>1675.761519840667</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="W23" t="n">
-        <v>1675.761519840667</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="X23" t="n">
-        <v>1264.041521008415</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="Y23" t="n">
-        <v>1264.041521008415</v>
+        <v>1317.315048686856</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G24" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H24" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911382</v>
       </c>
       <c r="I24" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069542</v>
       </c>
       <c r="J24" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K24" t="n">
         <v>442.1374612813225</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>489.4801163361673</v>
+        <v>404.3928009466496</v>
       </c>
       <c r="C25" t="n">
-        <v>372.4462849294896</v>
+        <v>232.4202378255656</v>
       </c>
       <c r="D25" t="n">
-        <v>209.1295120562603</v>
+        <v>232.4202378255656</v>
       </c>
       <c r="E25" t="n">
-        <v>42.92130620911384</v>
+        <v>232.4202378255656</v>
       </c>
       <c r="F25" t="n">
-        <v>42.92130620911384</v>
+        <v>60.55846360012606</v>
       </c>
       <c r="G25" t="n">
-        <v>42.92130620911384</v>
+        <v>60.55846360012606</v>
       </c>
       <c r="H25" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911382</v>
       </c>
       <c r="I25" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911382</v>
       </c>
       <c r="J25" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K25" t="n">
-        <v>379.2450920908747</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L25" t="n">
-        <v>865.5636917472752</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M25" t="n">
-        <v>1395.534104963559</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N25" t="n">
-        <v>1908.510246062611</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O25" t="n">
-        <v>2011.378035272977</v>
+        <v>1690.665279793249</v>
       </c>
       <c r="P25" t="n">
-        <v>2096.301629592817</v>
+        <v>2088.345078686397</v>
       </c>
       <c r="Q25" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R25" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S25" t="n">
-        <v>1985.251796590667</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T25" t="n">
-        <v>1985.251796590667</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U25" t="n">
-        <v>1705.116621132144</v>
+        <v>1620.029305742626</v>
       </c>
       <c r="V25" t="n">
-        <v>1423.405153740173</v>
+        <v>1338.317838350655</v>
       </c>
       <c r="W25" t="n">
-        <v>1148.552749912686</v>
+        <v>1063.465434523168</v>
       </c>
       <c r="X25" t="n">
-        <v>905.9888533584909</v>
+        <v>820.9015379689732</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.646085048233</v>
+        <v>594.5587696587153</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>516.6503513670835</v>
+        <v>1734.345311623439</v>
       </c>
       <c r="C26" t="n">
-        <v>516.6503513670835</v>
+        <v>1307.444581636739</v>
       </c>
       <c r="D26" t="n">
-        <v>516.6503513670835</v>
+        <v>884.1519608217391</v>
       </c>
       <c r="E26" t="n">
-        <v>90.67341151494111</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F26" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G26" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H26" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I26" t="n">
-        <v>84.8124243863659</v>
+        <v>84.81242438636593</v>
       </c>
       <c r="J26" t="n">
         <v>223.2074279870265</v>
       </c>
       <c r="K26" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L26" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M26" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N26" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O26" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P26" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q26" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R26" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T26" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U26" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="V26" t="n">
-        <v>1730.098969944099</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.707620244446</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="X26" t="n">
-        <v>921.9876214121932</v>
+        <v>1734.345311623439</v>
       </c>
       <c r="Y26" t="n">
-        <v>516.6503513670835</v>
+        <v>1734.345311623439</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G27" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H27" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I27" t="n">
-        <v>86.72780340069545</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J27" t="n">
-        <v>293.7826705248892</v>
+        <v>166.0970193140478</v>
       </c>
       <c r="K27" t="n">
-        <v>442.1374612813225</v>
+        <v>314.4518100704812</v>
       </c>
       <c r="L27" t="n">
-        <v>649.1461985093692</v>
+        <v>521.4605472985279</v>
       </c>
       <c r="M27" t="n">
-        <v>893.8611219611482</v>
+        <v>766.1754707503069</v>
       </c>
       <c r="N27" t="n">
-        <v>1147.394326063524</v>
+        <v>1019.708674852682</v>
       </c>
       <c r="O27" t="n">
-        <v>1375.716959365517</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P27" t="n">
-        <v>1555.824378604757</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q27" t="n">
         <v>1668.10954923374</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1090.001713900418</v>
+        <v>630.7355692569081</v>
       </c>
       <c r="C28" t="n">
-        <v>918.029150779334</v>
+        <v>458.7630061358241</v>
       </c>
       <c r="D28" t="n">
-        <v>754.7123779061047</v>
+        <v>295.4462332625948</v>
       </c>
       <c r="E28" t="n">
-        <v>588.5041720589583</v>
+        <v>129.2380274154483</v>
       </c>
       <c r="F28" t="n">
-        <v>416.6423978335187</v>
+        <v>129.2380274154483</v>
       </c>
       <c r="G28" t="n">
-        <v>251.288767215927</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="H28" t="n">
         <v>115.5240044353207</v>
       </c>
       <c r="I28" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J28" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K28" t="n">
-        <v>245.1158064986237</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L28" t="n">
-        <v>355.0455125638593</v>
+        <v>277.1237959156384</v>
       </c>
       <c r="M28" t="n">
-        <v>885.0159257801429</v>
+        <v>807.0942091319218</v>
       </c>
       <c r="N28" t="n">
-        <v>1397.992066879195</v>
+        <v>1320.070350230974</v>
       </c>
       <c r="O28" t="n">
-        <v>1547.24833332177</v>
+        <v>1800.640463744543</v>
       </c>
       <c r="P28" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q28" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R28" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S28" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T28" t="n">
-        <v>2139.644107416679</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U28" t="n">
-        <v>1859.508931958157</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="V28" t="n">
-        <v>1859.508931958157</v>
+        <v>1338.317838350656</v>
       </c>
       <c r="W28" t="n">
-        <v>1749.074347476937</v>
+        <v>1063.465434523169</v>
       </c>
       <c r="X28" t="n">
-        <v>1506.510450922742</v>
+        <v>820.9015379689737</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.167682612484</v>
+        <v>820.9015379689737</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1368.727531290412</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="C29" t="n">
-        <v>1368.727531290412</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="D29" t="n">
-        <v>1368.727531290412</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="E29" t="n">
-        <v>1147.614855241379</v>
+        <v>722.4906734307796</v>
       </c>
       <c r="F29" t="n">
         <v>722.4906734307796</v>
@@ -6457,7 +6457,7 @@
         <v>320.1654505589673</v>
       </c>
       <c r="H29" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I29" t="n">
         <v>84.81242438636582</v>
@@ -6466,10 +6466,10 @@
         <v>223.2074279870262</v>
       </c>
       <c r="K29" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L29" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M29" t="n">
         <v>1021.935294493278</v>
@@ -6481,34 +6481,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P29" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q29" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R29" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S29" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T29" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="U29" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="V29" t="n">
-        <v>1788.575895581942</v>
+        <v>1730.098969944098</v>
       </c>
       <c r="W29" t="n">
-        <v>1788.575895581942</v>
+        <v>1333.707620244445</v>
       </c>
       <c r="X29" t="n">
-        <v>1788.575895581942</v>
+        <v>1127.827943475889</v>
       </c>
       <c r="Y29" t="n">
-        <v>1788.575895581942</v>
+        <v>722.4906734307796</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G30" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H30" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I30" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J30" t="n">
-        <v>142.639713469636</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K30" t="n">
-        <v>547.5929615662282</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L30" t="n">
-        <v>754.6016987942749</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M30" t="n">
-        <v>999.3166222460538</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N30" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O30" t="n">
-        <v>1481.172459650423</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P30" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q30" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R30" t="n">
         <v>1815.69702447452</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>250.0004901206384</v>
+        <v>498.9855897138455</v>
       </c>
       <c r="C31" t="n">
-        <v>250.0004901206384</v>
+        <v>327.0130265927615</v>
       </c>
       <c r="D31" t="n">
-        <v>86.68371724740911</v>
+        <v>163.6962537195323</v>
       </c>
       <c r="E31" t="n">
-        <v>86.68371724740911</v>
+        <v>163.6962537195323</v>
       </c>
       <c r="F31" t="n">
-        <v>86.68371724740911</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G31" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H31" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I31" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J31" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K31" t="n">
-        <v>327.3374398904516</v>
+        <v>167.1940898504027</v>
       </c>
       <c r="L31" t="n">
-        <v>437.2671459556873</v>
+        <v>588.6406433335851</v>
       </c>
       <c r="M31" t="n">
-        <v>553.702078709149</v>
+        <v>705.0755760870468</v>
       </c>
       <c r="N31" t="n">
-        <v>1066.678219808201</v>
+        <v>1218.051717186099</v>
       </c>
       <c r="O31" t="n">
-        <v>1547.24833332177</v>
+        <v>1698.621830699668</v>
       </c>
       <c r="P31" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q31" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R31" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S31" t="n">
-        <v>1985.251796590667</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="T31" t="n">
-        <v>1745.772170375138</v>
+        <v>1752.19337341415</v>
       </c>
       <c r="U31" t="n">
-        <v>1465.636994916615</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.925527524644</v>
+        <v>1190.346730563656</v>
       </c>
       <c r="W31" t="n">
-        <v>909.0731236971569</v>
+        <v>915.4943267361691</v>
       </c>
       <c r="X31" t="n">
-        <v>666.509227142962</v>
+        <v>915.4943267361691</v>
       </c>
       <c r="Y31" t="n">
-        <v>440.1664588327041</v>
+        <v>689.1515584259112</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1596.335741212809</v>
+        <v>1734.345311623439</v>
       </c>
       <c r="C32" t="n">
-        <v>1169.43501122611</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D32" t="n">
-        <v>746.1423904111098</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E32" t="n">
-        <v>320.1654505589673</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F32" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G32" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H32" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I32" t="n">
-        <v>84.8124243863659</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J32" t="n">
-        <v>223.2074279870265</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K32" t="n">
-        <v>438.8706723956534</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L32" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M32" t="n">
         <v>1021.935294493278</v>
@@ -6724,28 +6724,28 @@
         <v>2056.763172699934</v>
       </c>
       <c r="R32" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T32" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U32" t="n">
-        <v>1829.394582577361</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="V32" t="n">
-        <v>1829.394582577361</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="W32" t="n">
-        <v>1829.394582577361</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="X32" t="n">
-        <v>1829.394582577361</v>
+        <v>1734.345311623439</v>
       </c>
       <c r="Y32" t="n">
-        <v>1829.394582577361</v>
+        <v>1734.345311623439</v>
       </c>
     </row>
     <row r="33">
@@ -6770,25 +6770,25 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G33" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H33" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I33" t="n">
-        <v>86.72780340069545</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J33" t="n">
-        <v>166.0970193140479</v>
+        <v>293.7826705248892</v>
       </c>
       <c r="K33" t="n">
-        <v>314.4518100704813</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L33" t="n">
-        <v>521.460547298528</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M33" t="n">
-        <v>766.1754707503071</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N33" t="n">
         <v>1147.394326063524</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1090.001713900418</v>
+        <v>630.7355692569081</v>
       </c>
       <c r="C34" t="n">
-        <v>918.029150779334</v>
+        <v>458.7630061358241</v>
       </c>
       <c r="D34" t="n">
-        <v>754.7123779061047</v>
+        <v>458.7630061358241</v>
       </c>
       <c r="E34" t="n">
-        <v>588.5041720589583</v>
+        <v>292.5548002886776</v>
       </c>
       <c r="F34" t="n">
-        <v>416.6423978335187</v>
+        <v>120.693026063238</v>
       </c>
       <c r="G34" t="n">
-        <v>251.288767215927</v>
+        <v>120.693026063238</v>
       </c>
       <c r="H34" t="n">
         <v>115.5240044353207</v>
       </c>
       <c r="I34" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J34" t="n">
-        <v>163.0077731040018</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K34" t="n">
-        <v>492.3984156126457</v>
+        <v>414.4766989644248</v>
       </c>
       <c r="L34" t="n">
-        <v>978.7170152690463</v>
+        <v>900.7952986208254</v>
       </c>
       <c r="M34" t="n">
-        <v>1508.68742848533</v>
+        <v>1430.765711837109</v>
       </c>
       <c r="N34" t="n">
-        <v>1757.136748684712</v>
+        <v>1545.708930094281</v>
       </c>
       <c r="O34" t="n">
-        <v>1860.004537895078</v>
+        <v>2011.378035272976</v>
       </c>
       <c r="P34" t="n">
-        <v>1944.928132214918</v>
+        <v>2096.301629592816</v>
       </c>
       <c r="Q34" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R34" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S34" t="n">
-        <v>1985.251796590667</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T34" t="n">
-        <v>1745.772170375138</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U34" t="n">
-        <v>1745.772170375138</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="V34" t="n">
-        <v>1464.060702983166</v>
+        <v>1338.317838350656</v>
       </c>
       <c r="W34" t="n">
-        <v>1189.208299155679</v>
+        <v>1063.465434523169</v>
       </c>
       <c r="X34" t="n">
-        <v>1189.208299155679</v>
+        <v>820.9015379689737</v>
       </c>
       <c r="Y34" t="n">
-        <v>1090.001713900418</v>
+        <v>820.9015379689737</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>893.1146570108135</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="C35" t="n">
-        <v>466.2139270241136</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="D35" t="n">
-        <v>42.92130620911384</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="E35" t="n">
-        <v>42.92130620911384</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F35" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G35" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H35" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I35" t="n">
         <v>84.81242438636582</v>
@@ -6940,10 +6940,10 @@
         <v>223.2074279870262</v>
       </c>
       <c r="K35" t="n">
-        <v>438.8706723956532</v>
+        <v>438.8706723956531</v>
       </c>
       <c r="L35" t="n">
-        <v>712.4165336350359</v>
+        <v>712.4165336350356</v>
       </c>
       <c r="M35" t="n">
         <v>1021.935294493278</v>
@@ -6955,34 +6955,34 @@
         <v>1632.752137974935</v>
       </c>
       <c r="P35" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q35" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R35" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S35" t="n">
-        <v>2146.065310455692</v>
+        <v>2087.588384817849</v>
       </c>
       <c r="T35" t="n">
-        <v>2146.065310455692</v>
+        <v>1875.478396443312</v>
       </c>
       <c r="U35" t="n">
-        <v>2146.065310455692</v>
+        <v>1617.284594202824</v>
       </c>
       <c r="V35" t="n">
-        <v>2146.065310455692</v>
+        <v>1259.795179329073</v>
       </c>
       <c r="W35" t="n">
-        <v>2130.020290179706</v>
+        <v>1259.795179329073</v>
       </c>
       <c r="X35" t="n">
-        <v>1718.300291347453</v>
+        <v>1259.795179329073</v>
       </c>
       <c r="Y35" t="n">
-        <v>1312.963021302344</v>
+        <v>887.8938523112437</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G36" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H36" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I36" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J36" t="n">
-        <v>399.2381708097948</v>
+        <v>166.0970193140478</v>
       </c>
       <c r="K36" t="n">
-        <v>547.5929615662282</v>
+        <v>442.1374612813225</v>
       </c>
       <c r="L36" t="n">
-        <v>754.6016987942749</v>
+        <v>649.1461985093692</v>
       </c>
       <c r="M36" t="n">
-        <v>999.3166222460538</v>
+        <v>893.8611219611482</v>
       </c>
       <c r="N36" t="n">
-        <v>1252.849826348429</v>
+        <v>1147.394326063524</v>
       </c>
       <c r="O36" t="n">
-        <v>1481.172459650423</v>
+        <v>1375.716959365517</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.279878889663</v>
+        <v>1555.824378604757</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R36" t="n">
         <v>1815.69702447452</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>600.9799726977297</v>
+        <v>250.0004901206375</v>
       </c>
       <c r="C37" t="n">
-        <v>429.0074095766457</v>
+        <v>78.0279269995535</v>
       </c>
       <c r="D37" t="n">
-        <v>265.6906367034164</v>
+        <v>78.0279269995535</v>
       </c>
       <c r="E37" t="n">
-        <v>265.6906367034164</v>
+        <v>78.0279269995535</v>
       </c>
       <c r="F37" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G37" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H37" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I37" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J37" t="n">
         <v>163.0077731040018</v>
@@ -7101,46 +7101,46 @@
         <v>492.3984156126457</v>
       </c>
       <c r="L37" t="n">
-        <v>602.3281216778814</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M37" t="n">
-        <v>931.4044030123523</v>
+        <v>1508.68742848533</v>
       </c>
       <c r="N37" t="n">
-        <v>1444.380544111404</v>
+        <v>1623.630646742502</v>
       </c>
       <c r="O37" t="n">
-        <v>1547.24833332177</v>
+        <v>1726.498435952867</v>
       </c>
       <c r="P37" t="n">
-        <v>1944.928132214918</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q37" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R37" t="n">
-        <v>2146.065310455692</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S37" t="n">
-        <v>2146.065310455692</v>
+        <v>1985.251796590666</v>
       </c>
       <c r="T37" t="n">
-        <v>1906.585684240163</v>
+        <v>1745.772170375137</v>
       </c>
       <c r="U37" t="n">
-        <v>1626.450508781641</v>
+        <v>1465.636994916614</v>
       </c>
       <c r="V37" t="n">
-        <v>1344.73904138967</v>
+        <v>1183.925527524643</v>
       </c>
       <c r="W37" t="n">
-        <v>1069.886637562183</v>
+        <v>909.073123697156</v>
       </c>
       <c r="X37" t="n">
-        <v>827.3227410079877</v>
+        <v>666.5092271429611</v>
       </c>
       <c r="Y37" t="n">
-        <v>600.9799726977297</v>
+        <v>440.1664588327031</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>508.5219859078062</v>
+        <v>363.0172886303889</v>
       </c>
       <c r="C38" t="n">
-        <v>508.5219859078062</v>
+        <v>363.0172886303889</v>
       </c>
       <c r="D38" t="n">
-        <v>508.5219859078062</v>
+        <v>363.0172886303889</v>
       </c>
       <c r="E38" t="n">
-        <v>82.54504605566376</v>
+        <v>363.0172886303889</v>
       </c>
       <c r="F38" t="n">
-        <v>82.54504605566376</v>
+        <v>363.0172886303889</v>
       </c>
       <c r="G38" t="n">
-        <v>82.54504605566376</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H38" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I38" t="n">
-        <v>84.81242438636627</v>
+        <v>84.81242438636582</v>
       </c>
       <c r="J38" t="n">
-        <v>223.2074279870269</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K38" t="n">
-        <v>438.8706723956539</v>
+        <v>438.8706723956534</v>
       </c>
       <c r="L38" t="n">
-        <v>712.4165336350364</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M38" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N38" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O38" t="n">
         <v>1632.752137974935</v>
       </c>
       <c r="P38" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q38" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R38" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T38" t="n">
-        <v>2087.58838481785</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="U38" t="n">
-        <v>2087.58838481785</v>
+        <v>1933.955322081155</v>
       </c>
       <c r="V38" t="n">
-        <v>1730.098969944099</v>
+        <v>1576.465907207404</v>
       </c>
       <c r="W38" t="n">
-        <v>1333.707620244446</v>
+        <v>1180.074557507751</v>
       </c>
       <c r="X38" t="n">
-        <v>1333.707620244446</v>
+        <v>768.3545586754985</v>
       </c>
       <c r="Y38" t="n">
-        <v>928.3703501993363</v>
+        <v>363.0172886303889</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G39" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H39" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I39" t="n">
-        <v>63.27049755628362</v>
+        <v>86.72780340069544</v>
       </c>
       <c r="J39" t="n">
-        <v>142.639713469636</v>
+        <v>166.0970193140478</v>
       </c>
       <c r="K39" t="n">
-        <v>547.5929615662282</v>
+        <v>314.4518100704812</v>
       </c>
       <c r="L39" t="n">
-        <v>754.6016987942749</v>
+        <v>521.4605472985279</v>
       </c>
       <c r="M39" t="n">
-        <v>999.3166222460538</v>
+        <v>766.1754707503069</v>
       </c>
       <c r="N39" t="n">
-        <v>1252.849826348429</v>
+        <v>1019.708674852682</v>
       </c>
       <c r="O39" t="n">
-        <v>1481.172459650423</v>
+        <v>1248.031308154676</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.279878889663</v>
+        <v>1428.138727393916</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.565049518645</v>
+        <v>1668.10954923374</v>
       </c>
       <c r="R39" t="n">
         <v>1815.69702447452</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>489.4801163361673</v>
+        <v>812.9855643791088</v>
       </c>
       <c r="C40" t="n">
-        <v>489.4801163361673</v>
+        <v>641.0130012580248</v>
       </c>
       <c r="D40" t="n">
-        <v>326.163343462938</v>
+        <v>477.6962283847955</v>
       </c>
       <c r="E40" t="n">
-        <v>159.9551376157916</v>
+        <v>311.488022537649</v>
       </c>
       <c r="F40" t="n">
-        <v>42.92130620911384</v>
+        <v>139.6262483122095</v>
       </c>
       <c r="G40" t="n">
-        <v>42.92130620911384</v>
+        <v>139.6262483122095</v>
       </c>
       <c r="H40" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I40" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J40" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K40" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L40" t="n">
-        <v>653.5126895068033</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M40" t="n">
-        <v>769.947622260265</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N40" t="n">
-        <v>1282.923763359317</v>
+        <v>1210.09516627968</v>
       </c>
       <c r="O40" t="n">
-        <v>1763.493876872886</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P40" t="n">
-        <v>1944.928132214918</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q40" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R40" t="n">
-        <v>2139.644107416679</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S40" t="n">
-        <v>1985.251796590667</v>
+        <v>1991.672999629679</v>
       </c>
       <c r="T40" t="n">
-        <v>1985.251796590667</v>
+        <v>1752.19337341415</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.116621132144</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="V40" t="n">
-        <v>1423.405153740173</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="W40" t="n">
-        <v>1148.552749912686</v>
+        <v>1472.058197955627</v>
       </c>
       <c r="X40" t="n">
-        <v>905.9888533584909</v>
+        <v>1229.494301401432</v>
       </c>
       <c r="Y40" t="n">
-        <v>679.646085048233</v>
+        <v>1003.151533091175</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1173.04312039781</v>
+        <v>722.2707448095464</v>
       </c>
       <c r="C41" t="n">
-        <v>746.1423904111098</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="D41" t="n">
-        <v>746.1423904111098</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="E41" t="n">
-        <v>320.1654505589673</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="F41" t="n">
-        <v>320.1654505589673</v>
+        <v>445.2465290809261</v>
       </c>
       <c r="G41" t="n">
-        <v>320.1654505589673</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H41" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I41" t="n">
         <v>84.81242438636593</v>
       </c>
       <c r="J41" t="n">
-        <v>223.2074279870266</v>
+        <v>223.2074279870265</v>
       </c>
       <c r="K41" t="n">
-        <v>438.8706723956535</v>
+        <v>438.8706723956533</v>
       </c>
       <c r="L41" t="n">
-        <v>712.4165336350361</v>
+        <v>712.4165336350359</v>
       </c>
       <c r="M41" t="n">
         <v>1021.935294493278</v>
@@ -7426,37 +7426,37 @@
         <v>1337.212136355668</v>
       </c>
       <c r="O41" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P41" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q41" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R41" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S41" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T41" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U41" t="n">
-        <v>2087.58838481785</v>
+        <v>1887.871508215203</v>
       </c>
       <c r="V41" t="n">
-        <v>1730.098969944099</v>
+        <v>1530.382093341452</v>
       </c>
       <c r="W41" t="n">
-        <v>1730.098969944099</v>
+        <v>1133.990743641799</v>
       </c>
       <c r="X41" t="n">
-        <v>1318.378971111846</v>
+        <v>722.2707448095464</v>
       </c>
       <c r="Y41" t="n">
-        <v>1173.04312039781</v>
+        <v>722.2707448095464</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G42" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H42" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I42" t="n">
-        <v>86.72780340069545</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J42" t="n">
-        <v>166.0970193140479</v>
+        <v>142.639713469636</v>
       </c>
       <c r="K42" t="n">
-        <v>314.4518100704813</v>
+        <v>290.9945042260693</v>
       </c>
       <c r="L42" t="n">
-        <v>521.460547298528</v>
+        <v>498.0032414541159</v>
       </c>
       <c r="M42" t="n">
-        <v>766.1754707503071</v>
+        <v>742.7181649058948</v>
       </c>
       <c r="N42" t="n">
-        <v>1019.708674852683</v>
+        <v>996.2513690082703</v>
       </c>
       <c r="O42" t="n">
-        <v>1248.031308154676</v>
+        <v>1224.574002310263</v>
       </c>
       <c r="P42" t="n">
-        <v>1555.824378604757</v>
+        <v>1404.681421549504</v>
       </c>
       <c r="Q42" t="n">
         <v>1668.10954923374</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.001713900418</v>
+        <v>790.9201782465825</v>
       </c>
       <c r="C43" t="n">
-        <v>918.029150779334</v>
+        <v>618.9476151254985</v>
       </c>
       <c r="D43" t="n">
-        <v>754.7123779061047</v>
+        <v>618.9476151254985</v>
       </c>
       <c r="E43" t="n">
-        <v>588.5041720589583</v>
+        <v>452.739409278352</v>
       </c>
       <c r="F43" t="n">
-        <v>416.6423978335187</v>
+        <v>280.8776350529124</v>
       </c>
       <c r="G43" t="n">
-        <v>251.288767215927</v>
+        <v>115.5240044353207</v>
       </c>
       <c r="H43" t="n">
         <v>115.5240044353207</v>
       </c>
       <c r="I43" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J43" t="n">
-        <v>85.08605645578092</v>
+        <v>163.0077731040018</v>
       </c>
       <c r="K43" t="n">
-        <v>167.1940898504028</v>
+        <v>492.3984156126457</v>
       </c>
       <c r="L43" t="n">
-        <v>277.1237959156385</v>
+        <v>978.7170152690463</v>
       </c>
       <c r="M43" t="n">
-        <v>807.0942091319221</v>
+        <v>1095.151948022508</v>
       </c>
       <c r="N43" t="n">
-        <v>1066.678219808201</v>
+        <v>1444.380544111403</v>
       </c>
       <c r="O43" t="n">
-        <v>1547.24833332177</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P43" t="n">
-        <v>1944.928132214918</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q43" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R43" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S43" t="n">
-        <v>2139.644107416679</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T43" t="n">
-        <v>1900.16448120115</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U43" t="n">
-        <v>1620.029305742628</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="V43" t="n">
-        <v>1620.029305742628</v>
+        <v>1618.453013809178</v>
       </c>
       <c r="W43" t="n">
-        <v>1620.029305742628</v>
+        <v>1343.600609981691</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.510450922742</v>
+        <v>1101.036713427496</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.167682612484</v>
+        <v>874.6939451172384</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1875.478396443313</v>
+        <v>1744.215778673556</v>
       </c>
       <c r="C44" t="n">
-        <v>1875.478396443313</v>
+        <v>1317.315048686856</v>
       </c>
       <c r="D44" t="n">
-        <v>1452.185775628313</v>
+        <v>894.0224278718561</v>
       </c>
       <c r="E44" t="n">
-        <v>1026.208835776171</v>
+        <v>468.0454880197136</v>
       </c>
       <c r="F44" t="n">
-        <v>601.0846539655711</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="G44" t="n">
-        <v>198.7594310937588</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H44" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I44" t="n">
-        <v>84.81242438636642</v>
+        <v>84.81242438636588</v>
       </c>
       <c r="J44" t="n">
-        <v>223.207427987027</v>
+        <v>223.2074279870264</v>
       </c>
       <c r="K44" t="n">
         <v>438.8706723956539</v>
       </c>
       <c r="L44" t="n">
-        <v>712.4165336350366</v>
+        <v>712.4165336350364</v>
       </c>
       <c r="M44" t="n">
         <v>1021.935294493278</v>
       </c>
       <c r="N44" t="n">
-        <v>1337.212136355669</v>
+        <v>1337.212136355668</v>
       </c>
       <c r="O44" t="n">
-        <v>1632.752137974936</v>
+        <v>1632.752137974935</v>
       </c>
       <c r="P44" t="n">
-        <v>1879.382279157807</v>
+        <v>1879.382279157806</v>
       </c>
       <c r="Q44" t="n">
-        <v>2056.763172699935</v>
+        <v>2056.763172699934</v>
       </c>
       <c r="R44" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.58838481785</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="T44" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="U44" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="V44" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="W44" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="X44" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1875.478396443313</v>
+        <v>2146.065310455691</v>
       </c>
     </row>
     <row r="45">
@@ -7718,28 +7718,28 @@
         <v>178.8672987557561</v>
       </c>
       <c r="G45" t="n">
-        <v>85.89102611901659</v>
+        <v>85.89102611901657</v>
       </c>
       <c r="H45" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I45" t="n">
-        <v>63.27049755628362</v>
+        <v>63.27049755628359</v>
       </c>
       <c r="J45" t="n">
-        <v>142.639713469636</v>
+        <v>399.2381708097953</v>
       </c>
       <c r="K45" t="n">
-        <v>547.5929615662282</v>
+        <v>547.5929615662286</v>
       </c>
       <c r="L45" t="n">
-        <v>754.6016987942749</v>
+        <v>754.6016987942753</v>
       </c>
       <c r="M45" t="n">
-        <v>999.3166222460538</v>
+        <v>999.3166222460543</v>
       </c>
       <c r="N45" t="n">
-        <v>1252.849826348429</v>
+        <v>1252.84982634843</v>
       </c>
       <c r="O45" t="n">
         <v>1481.172459650423</v>
@@ -7748,7 +7748,7 @@
         <v>1661.279878889663</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.565049518645</v>
+        <v>1773.565049518646</v>
       </c>
       <c r="R45" t="n">
         <v>1815.69702447452</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1090.001713900418</v>
+        <v>876.270237050687</v>
       </c>
       <c r="C46" t="n">
-        <v>918.029150779334</v>
+        <v>704.297673929603</v>
       </c>
       <c r="D46" t="n">
-        <v>754.7123779061047</v>
+        <v>540.9809010563737</v>
       </c>
       <c r="E46" t="n">
-        <v>588.5041720589583</v>
+        <v>374.7726952092272</v>
       </c>
       <c r="F46" t="n">
-        <v>416.6423978335187</v>
+        <v>202.9109209837876</v>
       </c>
       <c r="G46" t="n">
-        <v>251.288767215927</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="H46" t="n">
-        <v>115.5240044353207</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="I46" t="n">
-        <v>42.92130620911384</v>
+        <v>42.92130620911383</v>
       </c>
       <c r="J46" t="n">
-        <v>85.08605645578092</v>
+        <v>85.08605645578089</v>
       </c>
       <c r="K46" t="n">
-        <v>167.1940898504028</v>
+        <v>348.981469141166</v>
       </c>
       <c r="L46" t="n">
-        <v>487.8613674440719</v>
+        <v>835.3000687975666</v>
       </c>
       <c r="M46" t="n">
-        <v>1017.831780660355</v>
+        <v>951.7350015510283</v>
       </c>
       <c r="N46" t="n">
-        <v>1530.807921759407</v>
+        <v>1066.6782198082</v>
       </c>
       <c r="O46" t="n">
-        <v>2011.378035272977</v>
+        <v>1547.248333321769</v>
       </c>
       <c r="P46" t="n">
-        <v>2096.301629592817</v>
+        <v>1944.928132214917</v>
       </c>
       <c r="Q46" t="n">
-        <v>2146.065310455692</v>
+        <v>2146.065310455691</v>
       </c>
       <c r="R46" t="n">
-        <v>2146.065310455692</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="S46" t="n">
-        <v>2146.065310455692</v>
+        <v>2139.644107416678</v>
       </c>
       <c r="T46" t="n">
-        <v>2146.065310455692</v>
+        <v>1900.164481201149</v>
       </c>
       <c r="U46" t="n">
-        <v>1865.93013499717</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="V46" t="n">
-        <v>1865.93013499717</v>
+        <v>1620.029305742627</v>
       </c>
       <c r="W46" t="n">
-        <v>1591.077731169683</v>
+        <v>1345.17690191514</v>
       </c>
       <c r="X46" t="n">
-        <v>1348.513834615488</v>
+        <v>1102.613005360945</v>
       </c>
       <c r="Y46" t="n">
-        <v>1122.17106630523</v>
+        <v>876.270237050687</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>128.975405263476</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>259.1903609496547</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>104.9148107500436</v>
       </c>
       <c r="N13" t="n">
-        <v>366.4659757255851</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.9754052634752</v>
+        <v>128.9754052634759</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>366.4659757255856</v>
+        <v>67.39300582917708</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>259.1903609496545</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>235.4961126219667</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9330,16 +9330,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>236.6518967997208</v>
       </c>
       <c r="N19" t="n">
-        <v>213.5634531216472</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>235.4961126219658</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>128.9754052634762</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>323.9522782623505</v>
       </c>
       <c r="O22" t="n">
-        <v>236.6518967997209</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="K24" t="n">
-        <v>152.6696535911648</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>214.1929315560322</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>8.036920107493643</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>128.975405263476</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>128.9754052634762</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10047,13 +10047,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>46.85704770930244</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>212.8662338671037</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="K30" t="n">
-        <v>259.1903609496553</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>83.05215494124033</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>314.6634822403502</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>128.9754052634758</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10518,16 +10518,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>134.854648426475</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>366.4659757255851</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>259.1903609496553</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>128.9754052634761</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>214.7892409909183</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>134.8546484264742</v>
       </c>
       <c r="Q37" t="n">
         <v>152.9025226039384</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>259.1903609496553</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>128.9754052634762</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -10992,13 +10992,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>236.651896799721</v>
       </c>
       <c r="P40" t="n">
-        <v>97.48551618403179</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
         <v>152.9025226039384</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>128.9754052634758</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>152.6696535911654</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11217,22 +11217,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>146.1018105243505</v>
+        <v>236.6518967997209</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>259.1903609496559</v>
       </c>
       <c r="K45" t="n">
-        <v>259.1903609496553</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>183.6236154452155</v>
       </c>
       <c r="L46" t="n">
-        <v>212.8662338671045</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>251.6720239442361</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.4717029063549</v>
+        <v>120.1919592705564</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.356991008623005</v>
+        <v>6.356991008623012</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.5888164298882</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>102.7755053229273</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>267.9607950469157</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>57.89215638146401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.9888884907911</v>
@@ -23554,16 +23554,16 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>372.6996625872936</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6.850188246681256</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4071151528002</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>202.1917712029575</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.89215638146401</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>262.9818736593869</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>144.3778337788451</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.66825945155645</v>
+        <v>122.5875487202575</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.356991008623005</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>416.1208148273943</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>300.030072361505</v>
       </c>
       <c r="H20" t="n">
-        <v>274.4717029063549</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.89215638146401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.9888884907911</v>
@@ -24034,10 +24034,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>37.96456099922949</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>86.67540092096981</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>71.8766712439448</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>152.8483877177524</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.0848299533737</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.08976113776089</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3019706430941</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>57.89215638146402</v>
+        <v>56.9446706642051</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>54.38934439726219</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4071151528002</v>
+        <v>116.9463293356981</v>
       </c>
       <c r="I25" t="n">
         <v>71.87667124394481</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T25" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.771762379615836</v>
       </c>
       <c r="F26" t="n">
-        <v>373.5983557397248</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>398.3019706430941</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T26" t="n">
         <v>209.9888884907911</v>
@@ -24502,16 +24502,16 @@
         <v>255.6118642180837</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>150.1232115610894</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>152.8483877177524</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>162.7736411528042</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24688,10 +24688,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>202.8156211650789</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.9888884907911</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>203.78191884306</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>50.57595844787095</v>
       </c>
       <c r="G31" t="n">
-        <v>120.3753073835034</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H31" t="n">
         <v>134.4071151528002</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>184.9216276977086</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>9.771762379615836</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.3019706430941</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T32" t="n">
         <v>209.9888884907911</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6118642180837</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -24982,7 +24982,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7000943114157</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>129.2897837411621</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>152.8483877177524</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3338237039372</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.8648212244466</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3019706430941</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.89215638146402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>376.5428661294303</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>33.10158359700745</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>155.8853056905706</v>
+        <v>135.3876019006499</v>
       </c>
       <c r="G37" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8483877177524</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,16 +25399,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3019706430941</v>
+        <v>81.40694804603186</v>
       </c>
       <c r="H38" t="n">
-        <v>235.2442004582705</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T38" t="n">
-        <v>209.9888884907911</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.6118642180837</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>54.27966339057423</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.7000943114157</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4071151528002</v>
+        <v>38.66922247073552</v>
       </c>
       <c r="I40" t="n">
         <v>71.87667124394481</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.356991008623019</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>148.3777491154988</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3019706430941</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T41" t="n">
         <v>209.9888884907911</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6118642180837</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.4014051377622</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>105.3282798229957</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3338237039372</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>127.7545913169658</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>17.81884418430036</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3019706430941</v>
       </c>
       <c r="H44" t="n">
-        <v>120.1919592705564</v>
+        <v>274.4717029063549</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>57.89215638146403</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.9888884907911</v>
       </c>
       <c r="U44" t="n">
         <v>255.6118642180837</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.4166501441812</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5.31037568448869</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4071151528002</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.87667124394481</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.356991008623012</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>152.8483877177524</v>
       </c>
       <c r="T46" t="n">
-        <v>237.0848299533737</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>326248.5432604472</v>
+        <v>326248.543260447</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>326248.5432604472</v>
+        <v>326248.543260447</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>326248.5432604471</v>
+        <v>326248.543260447</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>326248.5432604472</v>
+        <v>326248.543260447</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>326248.5432604471</v>
+        <v>326248.543260447</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502037.5599860537</v>
+        <v>502037.5599860536</v>
       </c>
       <c r="C2" t="n">
         <v>502048.2424777885</v>
       </c>
       <c r="D2" t="n">
-        <v>502049.426221913</v>
+        <v>502049.4262219131</v>
       </c>
       <c r="E2" t="n">
-        <v>299290.9833995408</v>
+        <v>299290.983399541</v>
       </c>
       <c r="F2" t="n">
-        <v>299290.9833995408</v>
+        <v>299290.983399541</v>
       </c>
       <c r="G2" t="n">
-        <v>299290.9833995412</v>
+        <v>299290.983399541</v>
       </c>
       <c r="H2" t="n">
         <v>299290.9833995411</v>
       </c>
       <c r="I2" t="n">
-        <v>299290.983399541</v>
+        <v>299290.9833995409</v>
       </c>
       <c r="J2" t="n">
-        <v>299290.9833995411</v>
+        <v>299290.9833995408</v>
       </c>
       <c r="K2" t="n">
         <v>299290.983399541</v>
@@ -26346,16 +26346,16 @@
         <v>299290.9833995409</v>
       </c>
       <c r="M2" t="n">
-        <v>299290.9833995411</v>
+        <v>299290.9833995409</v>
       </c>
       <c r="N2" t="n">
-        <v>299290.9833995411</v>
+        <v>299290.9833995409</v>
       </c>
       <c r="O2" t="n">
-        <v>299290.9833995411</v>
+        <v>299290.983399541</v>
       </c>
       <c r="P2" t="n">
-        <v>299290.9833995411</v>
+        <v>299290.9833995409</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>133702.0149067</v>
+        <v>133702.0149067001</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>312767.7001099116</v>
       </c>
       <c r="E4" t="n">
-        <v>27401.57714771564</v>
+        <v>27401.57714771567</v>
       </c>
       <c r="F4" t="n">
-        <v>27401.57714771565</v>
+        <v>27401.57714771566</v>
       </c>
       <c r="G4" t="n">
-        <v>27401.57714771565</v>
+        <v>27401.57714771566</v>
       </c>
       <c r="H4" t="n">
-        <v>27401.57714771564</v>
+        <v>27401.57714771567</v>
       </c>
       <c r="I4" t="n">
-        <v>27401.57714771568</v>
+        <v>27401.57714771566</v>
       </c>
       <c r="J4" t="n">
-        <v>27401.57714771568</v>
+        <v>27401.57714771567</v>
       </c>
       <c r="K4" t="n">
-        <v>27401.57714771567</v>
+        <v>27401.57714771566</v>
       </c>
       <c r="L4" t="n">
         <v>27401.57714771567</v>
       </c>
       <c r="M4" t="n">
-        <v>27401.57714771568</v>
+        <v>27401.57714771567</v>
       </c>
       <c r="N4" t="n">
         <v>27401.57714771567</v>
       </c>
       <c r="O4" t="n">
-        <v>27401.57714771567</v>
+        <v>27401.57714771568</v>
       </c>
       <c r="P4" t="n">
-        <v>27401.57714771567</v>
+        <v>27401.57714771568</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>43431.53559403698</v>
       </c>
       <c r="F5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="G5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="H5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="I5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="J5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="K5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="L5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="M5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="N5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="O5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
       <c r="P5" t="n">
-        <v>43431.53559403698</v>
+        <v>43431.53559403696</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140928.2343419102</v>
+        <v>140906.5207004138</v>
       </c>
       <c r="C6" t="n">
-        <v>118663.8624498799</v>
+        <v>118642.1793297886</v>
       </c>
       <c r="D6" t="n">
-        <v>151109.6297454131</v>
+        <v>151087.9500074478</v>
       </c>
       <c r="E6" t="n">
-        <v>-296120.5413046011</v>
+        <v>-296721.5308792017</v>
       </c>
       <c r="F6" t="n">
-        <v>228457.8706577882</v>
+        <v>227856.8810831877</v>
       </c>
       <c r="G6" t="n">
-        <v>228457.8706577885</v>
+        <v>227856.8810831877</v>
       </c>
       <c r="H6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831878</v>
       </c>
       <c r="I6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831876</v>
       </c>
       <c r="J6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831875</v>
       </c>
       <c r="K6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831877</v>
       </c>
       <c r="L6" t="n">
-        <v>228457.8706577883</v>
+        <v>227856.8810831876</v>
       </c>
       <c r="M6" t="n">
-        <v>94755.85575108838</v>
+        <v>94154.8661764876</v>
       </c>
       <c r="N6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831876</v>
       </c>
       <c r="O6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831877</v>
       </c>
       <c r="P6" t="n">
-        <v>228457.8706577884</v>
+        <v>227856.8810831876</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087365</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9331594087366</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9331594087365</v>
+        <v>495.9331594087363</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>536.516327613923</v>
+        <v>536.5163276139231</v>
       </c>
       <c r="F4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="G4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="H4" t="n">
-        <v>536.516327613923</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="I4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139227</v>
       </c>
       <c r="J4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="K4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="L4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="N4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="O4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
       <c r="P4" t="n">
-        <v>536.5163276139231</v>
+        <v>536.5163276139228</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>4.227657588613987</v>
       </c>
       <c r="E3" t="n">
-        <v>453.5537456246485</v>
+        <v>453.5537456246484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>536.5163276139228</v>
+        <v>536.516327613923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,28 +31755,28 @@
         <v>1.993701143351703</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86216332906662</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J11" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K11" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M11" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7410792611031</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P11" t="n">
         <v>286.6967165404043</v>
@@ -31788,10 +31788,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T11" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U11" t="n">
         <v>0.1594960914681362</v>
@@ -31837,7 +31837,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I12" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J12" t="n">
         <v>100.7820394983358</v>
@@ -31849,31 +31849,31 @@
         <v>231.6148212880142</v>
       </c>
       <c r="M12" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N12" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O12" t="n">
         <v>253.800812249488</v>
       </c>
       <c r="P12" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q12" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S12" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T12" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943056972944429</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H13" t="n">
-        <v>7.951190654126962</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I13" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J13" t="n">
-        <v>63.22741279871711</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K13" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L13" t="n">
         <v>132.9588670323029</v>
@@ -31934,22 +31934,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O13" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P13" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S13" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U13" t="n">
         <v>0.04878031076151512</v>
@@ -31992,28 +31992,28 @@
         <v>1.993701143351703</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86216332906662</v>
+        <v>76.8621633290666</v>
       </c>
       <c r="J14" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K14" t="n">
         <v>253.6062618136244</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M14" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7410792611031</v>
+        <v>355.741079261103</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168995</v>
       </c>
       <c r="P14" t="n">
         <v>286.6967165404043</v>
@@ -32025,10 +32025,10 @@
         <v>125.2368294460665</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412697</v>
       </c>
       <c r="T14" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022083</v>
       </c>
       <c r="U14" t="n">
         <v>0.1594960914681362</v>
@@ -32074,7 +32074,7 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I15" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451492</v>
       </c>
       <c r="J15" t="n">
         <v>100.7820394983358</v>
@@ -32086,31 +32086,31 @@
         <v>231.6148212880142</v>
       </c>
       <c r="M15" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N15" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O15" t="n">
         <v>253.800812249488</v>
       </c>
       <c r="P15" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q15" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R15" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462337</v>
       </c>
       <c r="S15" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279243</v>
       </c>
       <c r="T15" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779516</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104765</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943056972944429</v>
+        <v>0.8943056972944426</v>
       </c>
       <c r="H16" t="n">
-        <v>7.951190654126962</v>
+        <v>7.95119065412696</v>
       </c>
       <c r="I16" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J16" t="n">
-        <v>63.22741279871711</v>
+        <v>63.2274127987171</v>
       </c>
       <c r="K16" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L16" t="n">
         <v>132.9588670323029</v>
@@ -32171,22 +32171,22 @@
         <v>136.8531618414306</v>
       </c>
       <c r="O16" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P16" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.88590707071921</v>
+        <v>74.8859070707192</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107557</v>
       </c>
       <c r="S16" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985345</v>
       </c>
       <c r="U16" t="n">
         <v>0.04878031076151512</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H17" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86216332906662</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J17" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K17" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L17" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M17" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7410792611031</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P17" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R17" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T17" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I18" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J18" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K18" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L18" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M18" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N18" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O18" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P18" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q18" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R18" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S18" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T18" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943056972944429</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H19" t="n">
-        <v>7.951190654126962</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I19" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J19" t="n">
-        <v>63.22741279871711</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K19" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L19" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M19" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N19" t="n">
         <v>136.8531618414306</v>
       </c>
       <c r="O19" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P19" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.88590707071921</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S19" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H20" t="n">
-        <v>20.41799183435064</v>
+        <v>20.41799183435063</v>
       </c>
       <c r="I20" t="n">
-        <v>76.86216332906662</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J20" t="n">
-        <v>169.2128924155468</v>
+        <v>169.2128924155467</v>
       </c>
       <c r="K20" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L20" t="n">
-        <v>314.6209931794742</v>
+        <v>314.6209931794741</v>
       </c>
       <c r="M20" t="n">
-        <v>350.076475887555</v>
+        <v>350.0764758875549</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7410792611031</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9162135168996</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P20" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q20" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R20" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S20" t="n">
-        <v>45.43146480412698</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T20" t="n">
-        <v>8.727426755022085</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I21" t="n">
-        <v>36.72712548451493</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J21" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K21" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L21" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M21" t="n">
-        <v>270.2835718777614</v>
+        <v>270.2835718777613</v>
       </c>
       <c r="N21" t="n">
-        <v>277.4371737714969</v>
+        <v>277.4371737714968</v>
       </c>
       <c r="O21" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P21" t="n">
-        <v>203.6975273050715</v>
+        <v>203.6975273050714</v>
       </c>
       <c r="Q21" t="n">
         <v>136.166402560678</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23046985462338</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S21" t="n">
-        <v>19.81393330279244</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T21" t="n">
-        <v>4.299646919779517</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07017922067104766</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943056972944429</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H22" t="n">
-        <v>7.951190654126962</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I22" t="n">
-        <v>26.89421133318198</v>
+        <v>26.89421133318197</v>
       </c>
       <c r="J22" t="n">
-        <v>63.22741279871711</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K22" t="n">
-        <v>103.9020619220271</v>
+        <v>103.902061922027</v>
       </c>
       <c r="L22" t="n">
         <v>132.9588670323029</v>
       </c>
       <c r="M22" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N22" t="n">
         <v>136.8531618414306</v>
       </c>
       <c r="O22" t="n">
-        <v>126.4060452866728</v>
+        <v>126.4060452866727</v>
       </c>
       <c r="P22" t="n">
         <v>108.162209061866</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.88590707071921</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21123617107558</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S22" t="n">
-        <v>15.58530928830406</v>
+        <v>15.58530928830405</v>
       </c>
       <c r="T22" t="n">
-        <v>3.821124342985346</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H23" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I23" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J23" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K23" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L23" t="n">
         <v>314.6209931794741</v>
@@ -32721,28 +32721,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N23" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P23" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R23" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T23" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I24" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J24" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K24" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L24" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M24" t="n">
         <v>270.2835718777613</v>
@@ -32803,7 +32803,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O24" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P24" t="n">
         <v>203.6975273050714</v>
@@ -32812,16 +32812,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S24" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T24" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H25" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I25" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J25" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K25" t="n">
         <v>103.902061922027</v>
@@ -32876,7 +32876,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M25" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N25" t="n">
         <v>136.8531618414306</v>
@@ -32888,19 +32888,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S25" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H26" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I26" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J26" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K26" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L26" t="n">
         <v>314.6209931794741</v>
@@ -32958,28 +32958,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N26" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P26" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R26" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T26" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I27" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J27" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K27" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M27" t="n">
         <v>270.2835718777613</v>
@@ -33040,7 +33040,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O27" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P27" t="n">
         <v>203.6975273050714</v>
@@ -33049,16 +33049,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S27" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T27" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H28" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I28" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J28" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K28" t="n">
         <v>103.902061922027</v>
@@ -33113,7 +33113,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M28" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N28" t="n">
         <v>136.8531618414306</v>
@@ -33125,19 +33125,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S28" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H29" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I29" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J29" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K29" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L29" t="n">
         <v>314.6209931794741</v>
@@ -33195,28 +33195,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N29" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P29" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R29" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T29" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,16 +33259,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I30" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J30" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K30" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L30" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M30" t="n">
         <v>270.2835718777613</v>
@@ -33277,7 +33277,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O30" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P30" t="n">
         <v>203.6975273050714</v>
@@ -33286,16 +33286,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S30" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T30" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H31" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I31" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J31" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K31" t="n">
         <v>103.902061922027</v>
@@ -33350,7 +33350,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M31" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N31" t="n">
         <v>136.8531618414306</v>
@@ -33362,19 +33362,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S31" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H32" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I32" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J32" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K32" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L32" t="n">
         <v>314.6209931794741</v>
@@ -33432,28 +33432,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N32" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P32" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R32" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T32" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,16 +33496,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I33" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J33" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K33" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L33" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M33" t="n">
         <v>270.2835718777613</v>
@@ -33514,7 +33514,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O33" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P33" t="n">
         <v>203.6975273050714</v>
@@ -33523,16 +33523,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S33" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T33" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H34" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I34" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J34" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K34" t="n">
         <v>103.902061922027</v>
@@ -33587,7 +33587,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M34" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N34" t="n">
         <v>136.8531618414306</v>
@@ -33599,19 +33599,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S34" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,19 +33648,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H35" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I35" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J35" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K35" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L35" t="n">
         <v>314.6209931794741</v>
@@ -33669,28 +33669,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N35" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P35" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R35" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T35" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,16 +33733,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I36" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J36" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K36" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L36" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M36" t="n">
         <v>270.2835718777613</v>
@@ -33751,7 +33751,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O36" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P36" t="n">
         <v>203.6975273050714</v>
@@ -33760,16 +33760,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S36" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T36" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H37" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I37" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J37" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K37" t="n">
         <v>103.902061922027</v>
@@ -33824,7 +33824,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N37" t="n">
         <v>136.8531618414306</v>
@@ -33836,19 +33836,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S37" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,19 +33885,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H38" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I38" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J38" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K38" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L38" t="n">
         <v>314.6209931794741</v>
@@ -33906,28 +33906,28 @@
         <v>350.0764758875549</v>
       </c>
       <c r="N38" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168994</v>
       </c>
       <c r="P38" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R38" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T38" t="n">
-        <v>8.727426755022083</v>
+        <v>8.727426755022082</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,16 +33970,16 @@
         <v>10.30230959450979</v>
       </c>
       <c r="I39" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J39" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K39" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L39" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M39" t="n">
         <v>270.2835718777613</v>
@@ -33988,7 +33988,7 @@
         <v>277.4371737714968</v>
       </c>
       <c r="O39" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P39" t="n">
         <v>203.6975273050714</v>
@@ -33997,16 +33997,16 @@
         <v>136.166402560678</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462335</v>
       </c>
       <c r="S39" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T39" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779515</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H40" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126958</v>
       </c>
       <c r="I40" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J40" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K40" t="n">
         <v>103.902061922027</v>
@@ -34061,7 +34061,7 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M40" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N40" t="n">
         <v>136.8531618414306</v>
@@ -34073,19 +34073,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071918</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S40" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.0487803107615151</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H41" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I41" t="n">
-        <v>76.8621633290666</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J41" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K41" t="n">
-        <v>253.6062618136244</v>
+        <v>253.6062618136243</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6209931794741</v>
+        <v>314.620993179474</v>
       </c>
       <c r="M41" t="n">
-        <v>350.0764758875549</v>
+        <v>350.0764758875548</v>
       </c>
       <c r="N41" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168993</v>
       </c>
       <c r="P41" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R41" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T41" t="n">
-        <v>8.727426755022083</v>
+        <v>8.72742675502208</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.066724154199924</v>
+        <v>1.066724154199923</v>
       </c>
       <c r="H42" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I42" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J42" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K42" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L42" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M42" t="n">
-        <v>270.2835718777613</v>
+        <v>270.2835718777612</v>
       </c>
       <c r="N42" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O42" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P42" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.166402560678</v>
+        <v>136.1664025606779</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462334</v>
       </c>
       <c r="S42" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T42" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779514</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H43" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126957</v>
       </c>
       <c r="I43" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J43" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K43" t="n">
         <v>103.902061922027</v>
@@ -34298,10 +34298,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M43" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N43" t="n">
-        <v>136.8531618414306</v>
+        <v>136.8531618414305</v>
       </c>
       <c r="O43" t="n">
         <v>126.4060452866727</v>
@@ -34310,19 +34310,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071917</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S43" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.04878031076151509</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.993701143351703</v>
+        <v>1.993701143351702</v>
       </c>
       <c r="H44" t="n">
         <v>20.41799183435063</v>
       </c>
       <c r="I44" t="n">
-        <v>76.8621633290671</v>
+        <v>76.86216332906658</v>
       </c>
       <c r="J44" t="n">
         <v>169.2128924155467</v>
       </c>
       <c r="K44" t="n">
-        <v>253.6062618136244</v>
+        <v>253.606261813625</v>
       </c>
       <c r="L44" t="n">
-        <v>314.6209931794741</v>
+        <v>314.620993179474</v>
       </c>
       <c r="M44" t="n">
-        <v>350.0764758875549</v>
+        <v>350.0764758875548</v>
       </c>
       <c r="N44" t="n">
-        <v>355.741079261103</v>
+        <v>355.7410792611029</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9162135168995</v>
+        <v>335.9162135168993</v>
       </c>
       <c r="P44" t="n">
-        <v>286.6967165404043</v>
+        <v>286.6967165404042</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.2972943441214</v>
+        <v>215.2972943441213</v>
       </c>
       <c r="R44" t="n">
         <v>125.2368294460665</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43146480412697</v>
+        <v>45.43146480412696</v>
       </c>
       <c r="T44" t="n">
-        <v>8.727426755022083</v>
+        <v>8.72742675502208</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1594960914681362</v>
+        <v>0.1594960914681361</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.066724154199924</v>
+        <v>1.066724154199923</v>
       </c>
       <c r="H45" t="n">
         <v>10.30230959450979</v>
       </c>
       <c r="I45" t="n">
-        <v>36.72712548451492</v>
+        <v>36.72712548451491</v>
       </c>
       <c r="J45" t="n">
         <v>100.7820394983358</v>
       </c>
       <c r="K45" t="n">
-        <v>172.2525578297307</v>
+        <v>172.2525578297306</v>
       </c>
       <c r="L45" t="n">
-        <v>231.6148212880142</v>
+        <v>231.6148212880141</v>
       </c>
       <c r="M45" t="n">
-        <v>270.2835718777613</v>
+        <v>270.2835718777612</v>
       </c>
       <c r="N45" t="n">
         <v>277.4371737714968</v>
       </c>
       <c r="O45" t="n">
-        <v>253.800812249488</v>
+        <v>253.8008122494879</v>
       </c>
       <c r="P45" t="n">
         <v>203.6975273050714</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.166402560678</v>
+        <v>136.1664025606779</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23046985462337</v>
+        <v>66.23046985462334</v>
       </c>
       <c r="S45" t="n">
-        <v>19.81393330279243</v>
+        <v>19.81393330279242</v>
       </c>
       <c r="T45" t="n">
-        <v>4.299646919779516</v>
+        <v>4.299646919779514</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07017922067104765</v>
+        <v>0.07017922067104762</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943056972944426</v>
+        <v>0.8943056972944424</v>
       </c>
       <c r="H46" t="n">
-        <v>7.95119065412696</v>
+        <v>7.951190654126957</v>
       </c>
       <c r="I46" t="n">
         <v>26.89421133318197</v>
       </c>
       <c r="J46" t="n">
-        <v>63.2274127987171</v>
+        <v>63.22741279871708</v>
       </c>
       <c r="K46" t="n">
         <v>103.902061922027</v>
@@ -34535,10 +34535,10 @@
         <v>132.9588670323029</v>
       </c>
       <c r="M46" t="n">
-        <v>140.1864830768007</v>
+        <v>140.1864830768006</v>
       </c>
       <c r="N46" t="n">
-        <v>136.8531618414306</v>
+        <v>136.8531618414305</v>
       </c>
       <c r="O46" t="n">
         <v>126.4060452866727</v>
@@ -34547,19 +34547,19 @@
         <v>108.162209061866</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.8859070707192</v>
+        <v>74.88590707071917</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21123617107557</v>
+        <v>40.21123617107556</v>
       </c>
       <c r="S46" t="n">
         <v>15.58530928830405</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821124342985345</v>
+        <v>3.821124342985344</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878031076151512</v>
+        <v>0.04878031076151509</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.31426078510312</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J11" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K11" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L11" t="n">
         <v>276.3089507468512</v>
       </c>
       <c r="M11" t="n">
-        <v>312.6452129881232</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4614564266571</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O11" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P11" t="n">
         <v>249.121354730173</v>
       </c>
       <c r="Q11" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R11" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220365</v>
       </c>
       <c r="J12" t="n">
-        <v>80.17092516500249</v>
+        <v>209.1463304284785</v>
       </c>
       <c r="K12" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L12" t="n">
         <v>209.0997345737846</v>
@@ -35500,7 +35500,7 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N12" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O12" t="n">
         <v>230.6289225272658</v>
@@ -35509,10 +35509,10 @@
         <v>181.9266861002428</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.6097252213542</v>
+        <v>113.4193642716995</v>
       </c>
       <c r="R12" t="n">
-        <v>42.55755046047923</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.59065681481525</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K13" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L13" t="n">
-        <v>491.2309087438391</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M13" t="n">
-        <v>535.3236497134177</v>
+        <v>222.5258539353584</v>
       </c>
       <c r="N13" t="n">
-        <v>482.5702365914153</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O13" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P13" t="n">
-        <v>85.78140840387955</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.26634430593427</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31426078510312</v>
+        <v>42.3142607851031</v>
       </c>
       <c r="J14" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K14" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L14" t="n">
         <v>276.3089507468512</v>
       </c>
       <c r="M14" t="n">
-        <v>312.6452129881232</v>
+        <v>312.6452129881231</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4614564266571</v>
+        <v>318.461456426657</v>
       </c>
       <c r="O14" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608754</v>
       </c>
       <c r="P14" t="n">
         <v>249.121354730173</v>
       </c>
       <c r="Q14" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R14" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127004</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>44.24898706220365</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17092516500249</v>
+        <v>80.17092516500246</v>
       </c>
       <c r="K15" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L15" t="n">
         <v>209.0997345737846</v>
@@ -35737,7 +35737,7 @@
         <v>247.1867913654334</v>
       </c>
       <c r="N15" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O15" t="n">
         <v>230.6289225272658</v>
@@ -35746,7 +35746,7 @@
         <v>181.9266861002428</v>
       </c>
       <c r="Q15" t="n">
-        <v>242.3947695351747</v>
+        <v>242.3947695351754</v>
       </c>
       <c r="R15" t="n">
         <v>149.0782578189699</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.59065681481525</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K16" t="n">
-        <v>332.717820715802</v>
+        <v>82.93740746931505</v>
       </c>
       <c r="L16" t="n">
-        <v>491.2309087438391</v>
+        <v>111.0401071366017</v>
       </c>
       <c r="M16" t="n">
         <v>535.3236497134177</v>
       </c>
       <c r="N16" t="n">
-        <v>482.5702365914158</v>
+        <v>183.4972666950073</v>
       </c>
       <c r="O16" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844132</v>
       </c>
       <c r="P16" t="n">
-        <v>85.78140840387955</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.26634430593427</v>
+        <v>203.1688669098727</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.31426078510312</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J17" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K17" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L17" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M17" t="n">
-        <v>312.6452129881232</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N17" t="n">
-        <v>318.4614564266571</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O17" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P17" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q17" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R17" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.55473873451493</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J18" t="n">
-        <v>339.361286114657</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K18" t="n">
-        <v>149.8533239963974</v>
+        <v>385.349436618364</v>
       </c>
       <c r="L18" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M18" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N18" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O18" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P18" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q18" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R18" t="n">
-        <v>42.55755046047923</v>
+        <v>42.55755046047921</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.59065681481525</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K19" t="n">
         <v>332.717820715802</v>
       </c>
       <c r="L19" t="n">
-        <v>491.2309087438391</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M19" t="n">
-        <v>535.3236497134177</v>
+        <v>354.2629399850356</v>
       </c>
       <c r="N19" t="n">
-        <v>329.6677139874774</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O19" t="n">
         <v>103.9068577882483</v>
       </c>
       <c r="P19" t="n">
-        <v>85.78140840387955</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q19" t="n">
         <v>203.1688669098727</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.31426078510312</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J20" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K20" t="n">
-        <v>217.8416610188151</v>
+        <v>217.841661018815</v>
       </c>
       <c r="L20" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M20" t="n">
-        <v>312.6452129881232</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N20" t="n">
-        <v>318.4614564266571</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O20" t="n">
-        <v>298.5252541608755</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P20" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q20" t="n">
-        <v>179.1726197395234</v>
+        <v>179.1726197395233</v>
       </c>
       <c r="R20" t="n">
-        <v>90.20417955127007</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>44.24898706220365</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17092516500249</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K21" t="n">
-        <v>149.8533239963974</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L21" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M21" t="n">
-        <v>482.6829039873992</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N21" t="n">
-        <v>256.0941455579552</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O21" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P21" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.4193642716995</v>
+        <v>242.3947695351756</v>
       </c>
       <c r="R21" t="n">
-        <v>42.55755046047923</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>332.717820715802</v>
       </c>
       <c r="L22" t="n">
-        <v>491.2309087438391</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M22" t="n">
-        <v>117.6110431853149</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N22" t="n">
-        <v>116.1042608658302</v>
+        <v>440.0565391281807</v>
       </c>
       <c r="O22" t="n">
-        <v>340.5587545879692</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P22" t="n">
-        <v>401.6967665587357</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J23" t="n">
         <v>139.7929329299602</v>
@@ -36363,25 +36363,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L23" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M23" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N23" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O23" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P23" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q23" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R23" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J24" t="n">
-        <v>80.17092516500246</v>
+        <v>209.1463304284786</v>
       </c>
       <c r="K24" t="n">
-        <v>302.5229775875621</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L24" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M24" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N24" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O24" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P24" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q24" t="n">
         <v>113.4193642716995</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K25" t="n">
-        <v>297.1303390253472</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L25" t="n">
         <v>491.230908743839</v>
       </c>
       <c r="M25" t="n">
-        <v>535.3236497134177</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N25" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O25" t="n">
-        <v>103.9068577882483</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P25" t="n">
-        <v>85.78140840387952</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26634430593425</v>
+        <v>58.30326441342788</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J26" t="n">
         <v>139.7929329299602</v>
@@ -36600,25 +36600,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L26" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M26" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N26" t="n">
-        <v>318.4614564266575</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O26" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P26" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q26" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R26" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.24898706220365</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J27" t="n">
-        <v>209.1463304284785</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K27" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L27" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M27" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N27" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O27" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P27" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.4193642716995</v>
+        <v>242.3947695351756</v>
       </c>
       <c r="R27" t="n">
         <v>149.0782578189699</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K28" t="n">
-        <v>82.93740746931505</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L28" t="n">
-        <v>111.0401071366017</v>
+        <v>111.0401071366016</v>
       </c>
       <c r="M28" t="n">
-        <v>535.3236497134177</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N28" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O28" t="n">
-        <v>150.7639054975507</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P28" t="n">
-        <v>401.6967665587357</v>
+        <v>298.6476422709832</v>
       </c>
       <c r="Q28" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J29" t="n">
         <v>139.7929329299602</v>
@@ -36837,25 +36837,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L29" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M29" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N29" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O29" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P29" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q29" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R29" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J30" t="n">
-        <v>80.17092516500246</v>
+        <v>209.1463304284786</v>
       </c>
       <c r="K30" t="n">
-        <v>409.0436849460526</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L30" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M30" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N30" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O30" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P30" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q30" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R30" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K31" t="n">
-        <v>165.9895624105554</v>
+        <v>82.93740746931502</v>
       </c>
       <c r="L31" t="n">
-        <v>111.0401071366017</v>
+        <v>425.7035893769519</v>
       </c>
       <c r="M31" t="n">
-        <v>117.6110431853149</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N31" t="n">
         <v>518.1577182818708</v>
       </c>
       <c r="O31" t="n">
-        <v>485.4243570844132</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P31" t="n">
         <v>401.6967665587357</v>
       </c>
       <c r="Q31" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J32" t="n">
         <v>139.7929329299602</v>
@@ -37074,16 +37074,16 @@
         <v>217.841661018815</v>
       </c>
       <c r="L32" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M32" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N32" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O32" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P32" t="n">
         <v>249.121354730173</v>
@@ -37092,7 +37092,7 @@
         <v>179.1726197395233</v>
       </c>
       <c r="R32" t="n">
-        <v>90.20417955127064</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>44.24898706220365</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J33" t="n">
-        <v>80.17092516500246</v>
+        <v>209.1463304284786</v>
       </c>
       <c r="K33" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L33" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M33" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N33" t="n">
-        <v>385.0695508214309</v>
+        <v>256.0941455579551</v>
       </c>
       <c r="O33" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P33" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q33" t="n">
         <v>113.4193642716995</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>121.2994615099878</v>
+        <v>42.59065681481522</v>
       </c>
       <c r="K34" t="n">
         <v>332.717820715802</v>
@@ -37235,19 +37235,19 @@
         <v>491.230908743839</v>
       </c>
       <c r="M34" t="n">
-        <v>535.3236497134177</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N34" t="n">
-        <v>250.9589092923052</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O34" t="n">
-        <v>103.9068577882483</v>
+        <v>470.3728335138333</v>
       </c>
       <c r="P34" t="n">
-        <v>85.78140840387952</v>
+        <v>85.7814084038795</v>
       </c>
       <c r="Q34" t="n">
-        <v>203.1688669098727</v>
+        <v>50.26634430593424</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J35" t="n">
         <v>139.7929329299602</v>
@@ -37311,25 +37311,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L35" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M35" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N35" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O35" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P35" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q35" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R35" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J36" t="n">
-        <v>339.3612861146578</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K36" t="n">
-        <v>149.8533239963973</v>
+        <v>278.8287292598735</v>
       </c>
       <c r="L36" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M36" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N36" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O36" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P36" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q36" t="n">
         <v>113.4193642716995</v>
       </c>
       <c r="R36" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,19 +37469,19 @@
         <v>332.717820715802</v>
       </c>
       <c r="L37" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M37" t="n">
-        <v>332.4002841762332</v>
+        <v>535.3236497134176</v>
       </c>
       <c r="N37" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O37" t="n">
         <v>103.9068577882483</v>
       </c>
       <c r="P37" t="n">
-        <v>401.6967665587357</v>
+        <v>220.6360568303537</v>
       </c>
       <c r="Q37" t="n">
         <v>203.1688669098727</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J38" t="n">
         <v>139.7929329299602</v>
@@ -37548,25 +37548,25 @@
         <v>217.841661018815</v>
       </c>
       <c r="L38" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M38" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N38" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O38" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608753</v>
       </c>
       <c r="P38" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q38" t="n">
         <v>179.1726197395233</v>
       </c>
       <c r="R38" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955127002</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.55473873451492</v>
+        <v>44.24898706220364</v>
       </c>
       <c r="J39" t="n">
-        <v>80.17092516500246</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K39" t="n">
-        <v>409.0436849460526</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L39" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M39" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N39" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O39" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P39" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.4193642716995</v>
+        <v>242.3947695351756</v>
       </c>
       <c r="R39" t="n">
-        <v>42.55755046047922</v>
+        <v>149.0782578189699</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K40" t="n">
-        <v>82.93740746931505</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L40" t="n">
         <v>491.230908743839</v>
       </c>
       <c r="M40" t="n">
-        <v>117.6110431853149</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N40" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658302</v>
       </c>
       <c r="O40" t="n">
-        <v>485.4243570844132</v>
+        <v>340.5587545879692</v>
       </c>
       <c r="P40" t="n">
-        <v>183.2669245879113</v>
+        <v>401.6967665587357</v>
       </c>
       <c r="Q40" t="n">
         <v>203.1688669098727</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.3142607851031</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J41" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K41" t="n">
-        <v>217.841661018815</v>
+        <v>217.8416610188149</v>
       </c>
       <c r="L41" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M41" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N41" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O41" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608752</v>
       </c>
       <c r="P41" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q41" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395232</v>
       </c>
       <c r="R41" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955126999</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.24898706220365</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J42" t="n">
-        <v>80.17092516500246</v>
+        <v>80.17092516500243</v>
       </c>
       <c r="K42" t="n">
         <v>149.8533239963973</v>
       </c>
       <c r="L42" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M42" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N42" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O42" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P42" t="n">
-        <v>310.9020913637186</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.4193642716995</v>
+        <v>266.0890178628649</v>
       </c>
       <c r="R42" t="n">
         <v>149.0782578189699</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.59065681481523</v>
+        <v>121.2994615099878</v>
       </c>
       <c r="K43" t="n">
-        <v>82.93740746931505</v>
+        <v>332.717820715802</v>
       </c>
       <c r="L43" t="n">
-        <v>111.0401071366017</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M43" t="n">
-        <v>535.3236497134177</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N43" t="n">
-        <v>262.2060713901807</v>
+        <v>352.756157665551</v>
       </c>
       <c r="O43" t="n">
-        <v>485.4243570844132</v>
+        <v>103.9068577882482</v>
       </c>
       <c r="P43" t="n">
-        <v>401.6967665587357</v>
+        <v>401.6967665587356</v>
       </c>
       <c r="Q43" t="n">
-        <v>203.1688669098727</v>
+        <v>203.1688669098726</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>42.31426078510361</v>
+        <v>42.31426078510307</v>
       </c>
       <c r="J44" t="n">
         <v>139.7929329299602</v>
       </c>
       <c r="K44" t="n">
-        <v>217.841661018815</v>
+        <v>217.8416610188156</v>
       </c>
       <c r="L44" t="n">
-        <v>276.3089507468512</v>
+        <v>276.3089507468511</v>
       </c>
       <c r="M44" t="n">
-        <v>312.6452129881231</v>
+        <v>312.645212988123</v>
       </c>
       <c r="N44" t="n">
-        <v>318.461456426657</v>
+        <v>318.4614564266569</v>
       </c>
       <c r="O44" t="n">
-        <v>298.5252541608754</v>
+        <v>298.5252541608752</v>
       </c>
       <c r="P44" t="n">
-        <v>249.121354730173</v>
+        <v>249.1213547301729</v>
       </c>
       <c r="Q44" t="n">
-        <v>179.1726197395233</v>
+        <v>179.1726197395232</v>
       </c>
       <c r="R44" t="n">
-        <v>90.20417955127004</v>
+        <v>90.20417955126999</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.55473873451492</v>
+        <v>20.55473873451491</v>
       </c>
       <c r="J45" t="n">
-        <v>80.17092516500246</v>
+        <v>339.3612861146583</v>
       </c>
       <c r="K45" t="n">
-        <v>409.0436849460526</v>
+        <v>149.8533239963973</v>
       </c>
       <c r="L45" t="n">
-        <v>209.0997345737846</v>
+        <v>209.0997345737845</v>
       </c>
       <c r="M45" t="n">
-        <v>247.1867913654334</v>
+        <v>247.1867913654333</v>
       </c>
       <c r="N45" t="n">
         <v>256.0941455579551</v>
       </c>
       <c r="O45" t="n">
-        <v>230.6289225272658</v>
+        <v>230.6289225272657</v>
       </c>
       <c r="P45" t="n">
-        <v>181.9266861002428</v>
+        <v>181.9266861002427</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.4193642716995</v>
+        <v>113.4193642716994</v>
       </c>
       <c r="R45" t="n">
-        <v>42.55755046047922</v>
+        <v>42.55755046047919</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.59065681481523</v>
+        <v>42.5906568148152</v>
       </c>
       <c r="K46" t="n">
-        <v>82.93740746931505</v>
+        <v>266.5610229145305</v>
       </c>
       <c r="L46" t="n">
-        <v>323.9063410037062</v>
+        <v>491.230908743839</v>
       </c>
       <c r="M46" t="n">
-        <v>535.3236497134177</v>
+        <v>117.6110431853148</v>
       </c>
       <c r="N46" t="n">
-        <v>518.1577182818708</v>
+        <v>116.1042608658301</v>
       </c>
       <c r="O46" t="n">
-        <v>485.4243570844132</v>
+        <v>485.4243570844131</v>
       </c>
       <c r="P46" t="n">
-        <v>85.78140840387952</v>
+        <v>401.6967665587356</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.26634430593425</v>
+        <v>203.1688669098726</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
